--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -24,9 +24,6 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Pre Requisite :Log  into the application using URL  www. http://hiretopsales.com/</t>
-  </si>
-  <si>
     <t>Search for the Jobs</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Error message will be displayed asking to enter the correct password</t>
+  </si>
+  <si>
+    <t>Pre Requisite :Log  into the application using URL  www. http://hiretopsales.com/ Added some Change</t>
   </si>
 </sst>
 </file>
@@ -153,13 +153,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,67 +464,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="135">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="105">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
     </row>
